--- a/data/nzd0044/nzd0044.xlsx
+++ b/data/nzd0044/nzd0044.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H488"/>
+  <dimension ref="A1:H498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14641,6 +14641,290 @@
         <v>389.06</v>
       </c>
       <c r="H488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>368.29</v>
+      </c>
+      <c r="C489" t="n">
+        <v>364.7042857142857</v>
+      </c>
+      <c r="D489" t="n">
+        <v>361.5011111111111</v>
+      </c>
+      <c r="E489" t="n">
+        <v>370.1033333333334</v>
+      </c>
+      <c r="F489" t="n">
+        <v>376.6211111111111</v>
+      </c>
+      <c r="G489" t="n">
+        <v>393.13</v>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>376.315</v>
+      </c>
+      <c r="C490" t="n">
+        <v>375.2642857142857</v>
+      </c>
+      <c r="D490" t="n">
+        <v>374.1588888888889</v>
+      </c>
+      <c r="E490" t="n">
+        <v>379.5366666666667</v>
+      </c>
+      <c r="F490" t="n">
+        <v>379.1488888888889</v>
+      </c>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>375.845</v>
+      </c>
+      <c r="C491" t="n">
+        <v>373.3042857142857</v>
+      </c>
+      <c r="D491" t="n">
+        <v>375.2988888888889</v>
+      </c>
+      <c r="E491" t="n">
+        <v>373.8466666666667</v>
+      </c>
+      <c r="F491" t="n">
+        <v>376.2988888888889</v>
+      </c>
+      <c r="G491" t="n">
+        <v>385.78</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>371.47</v>
+      </c>
+      <c r="C492" t="n">
+        <v>362.5428571428571</v>
+      </c>
+      <c r="D492" t="n">
+        <v>370.8622222222222</v>
+      </c>
+      <c r="E492" t="n">
+        <v>377.9766666666666</v>
+      </c>
+      <c r="F492" t="n">
+        <v>384.7722222222222</v>
+      </c>
+      <c r="G492" t="n">
+        <v>391.09</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>378.71</v>
+      </c>
+      <c r="C493" t="n">
+        <v>377.7</v>
+      </c>
+      <c r="D493" t="n">
+        <v>378.9544444444445</v>
+      </c>
+      <c r="E493" t="n">
+        <v>383.1233333333333</v>
+      </c>
+      <c r="F493" t="n">
+        <v>393.0044444444445</v>
+      </c>
+      <c r="G493" t="n">
+        <v>402.49</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>370.705</v>
+      </c>
+      <c r="C494" t="n">
+        <v>366.5614285714286</v>
+      </c>
+      <c r="D494" t="n">
+        <v>373.8766666666667</v>
+      </c>
+      <c r="E494" t="n">
+        <v>376.13</v>
+      </c>
+      <c r="F494" t="n">
+        <v>388.1066666666667</v>
+      </c>
+      <c r="G494" t="n">
+        <v>400.45</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>382.25</v>
+      </c>
+      <c r="C495" t="n">
+        <v>374.3342857142857</v>
+      </c>
+      <c r="D495" t="n">
+        <v>372.0844444444445</v>
+      </c>
+      <c r="E495" t="n">
+        <v>382.7133333333333</v>
+      </c>
+      <c r="F495" t="n">
+        <v>391.4944444444445</v>
+      </c>
+      <c r="G495" t="n">
+        <v>406.72</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr"/>
+      <c r="C496" t="inlineStr"/>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="n">
+        <v>394.24</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>385.405</v>
+      </c>
+      <c r="C497" t="n">
+        <v>382.0071428571428</v>
+      </c>
+      <c r="D497" t="n">
+        <v>386.6111111111111</v>
+      </c>
+      <c r="E497" t="n">
+        <v>386.0733333333333</v>
+      </c>
+      <c r="F497" t="n">
+        <v>388.1511111111111</v>
+      </c>
+      <c r="G497" t="n">
+        <v>400.44</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr"/>
+      <c r="D498" t="n">
+        <v>380.8977777777778</v>
+      </c>
+      <c r="E498" t="n">
+        <v>380.6233333333333</v>
+      </c>
+      <c r="F498" t="n">
+        <v>386.0977777777778</v>
+      </c>
+      <c r="G498" t="n">
+        <v>395.11</v>
+      </c>
+      <c r="H498" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14657,7 +14941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B567"/>
+  <dimension ref="A1:B577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20335,6 +20619,106 @@
       </c>
       <c r="B567" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -20503,28 +20887,28 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01667911460850021</v>
+        <v>-0.01409365708817077</v>
       </c>
       <c r="J2" t="n">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K2" t="n">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001926933256490848</v>
+        <v>0.0001387723494074011</v>
       </c>
       <c r="M2" t="n">
-        <v>7.027211547394906</v>
+        <v>7.073294647674388</v>
       </c>
       <c r="N2" t="n">
-        <v>81.58465519035222</v>
+        <v>82.26554041233244</v>
       </c>
       <c r="O2" t="n">
-        <v>9.032422443085366</v>
+        <v>9.070035303808494</v>
       </c>
       <c r="P2" t="n">
-        <v>385.4698889979001</v>
+        <v>385.758692331104</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -20580,28 +20964,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03540077350814759</v>
+        <v>0.02300008299516878</v>
       </c>
       <c r="J3" t="n">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K3" t="n">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0009449730028746606</v>
+        <v>0.0004077844323975288</v>
       </c>
       <c r="M3" t="n">
-        <v>6.989869587076126</v>
+        <v>6.971609333454362</v>
       </c>
       <c r="N3" t="n">
-        <v>75.18976560968726</v>
+        <v>74.83435212414344</v>
       </c>
       <c r="O3" t="n">
-        <v>8.6712032388641</v>
+        <v>8.650685066753004</v>
       </c>
       <c r="P3" t="n">
-        <v>375.0707841580648</v>
+        <v>375.1869498916639</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -20657,28 +21041,28 @@
         <v>0.1005</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02307291766422206</v>
+        <v>-0.03174166939522723</v>
       </c>
       <c r="J4" t="n">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K4" t="n">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000440805816020351</v>
+        <v>0.0008547176040152316</v>
       </c>
       <c r="M4" t="n">
-        <v>6.465462231862551</v>
+        <v>6.451256821242787</v>
       </c>
       <c r="N4" t="n">
-        <v>68.08528784407828</v>
+        <v>67.7256882463135</v>
       </c>
       <c r="O4" t="n">
-        <v>8.251380965879486</v>
+        <v>8.22956185020281</v>
       </c>
       <c r="P4" t="n">
-        <v>377.9623830307997</v>
+        <v>378.0432757669631</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -20734,28 +21118,28 @@
         <v>0.0868</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06613594270715441</v>
+        <v>-0.07164773806019453</v>
       </c>
       <c r="J5" t="n">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K5" t="n">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003876697722099309</v>
+        <v>0.004689582900041511</v>
       </c>
       <c r="M5" t="n">
-        <v>6.176252028431742</v>
+        <v>6.133955061214563</v>
       </c>
       <c r="N5" t="n">
-        <v>63.73982950748223</v>
+        <v>62.97594445923837</v>
       </c>
       <c r="O5" t="n">
-        <v>7.983722784984598</v>
+        <v>7.935738431881331</v>
       </c>
       <c r="P5" t="n">
-        <v>382.1579392944392</v>
+        <v>382.2092642202231</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -20811,28 +21195,28 @@
         <v>0.102</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02893945497252823</v>
+        <v>-0.03200936856363899</v>
       </c>
       <c r="J6" t="n">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K6" t="n">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004294865083039889</v>
+        <v>0.0005431618820616047</v>
       </c>
       <c r="M6" t="n">
-        <v>8.326695803659478</v>
+        <v>8.260683806563266</v>
       </c>
       <c r="N6" t="n">
-        <v>110.4783770700661</v>
+        <v>109.0117091310257</v>
       </c>
       <c r="O6" t="n">
-        <v>10.5108694726015</v>
+        <v>10.44086725952522</v>
       </c>
       <c r="P6" t="n">
-        <v>386.4711310714289</v>
+        <v>386.4992947551759</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -20888,28 +21272,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1521788408785293</v>
+        <v>-0.1395702053408728</v>
       </c>
       <c r="J7" t="n">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K7" t="n">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01153237145247599</v>
+        <v>0.01002805020243103</v>
       </c>
       <c r="M7" t="n">
-        <v>8.626482329881117</v>
+        <v>8.559959356321029</v>
       </c>
       <c r="N7" t="n">
-        <v>112.3222646662057</v>
+        <v>111.0189137839834</v>
       </c>
       <c r="O7" t="n">
-        <v>10.59821988195214</v>
+        <v>10.53655132308401</v>
       </c>
       <c r="P7" t="n">
-        <v>397.0693127044279</v>
+        <v>396.9506680958588</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -20946,7 +21330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H488"/>
+  <dimension ref="A1:H498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40566,6 +40950,394 @@
         </is>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-35.00181421381853,173.79131686772593</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-35.00195126849116,173.79220031662598</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-35.00206066604073,173.79308934534717</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-35.00198930766647,173.79398267381697</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-35.00185086750752,173.79484826416962</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-35.00149266638103,173.79561427203214</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-35.00174254480487,173.7913289943175</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-35.001856753409065,173.79221435173957</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-35.00194669789799,173.79309680614287</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-35.001904391055035,173.79397669495356</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-35.00182860744116,173.79484231137417</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-35.001746742242474,173.79132828410022</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-35.00187429598133,173.79221174673972</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-35.00193643356198,173.79309747808514</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-35.00195561107491,173.79398030128397</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-35.00185370505441,173.7948490229877</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-35.00155563849892,173.7956393773093</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-35.00178581413483,173.7913216730319</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-35.001970613907396,173.79219744390488</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-35.00197638043678,173.7930948630107</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-35.001918433802196,173.79397768368335</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>-35.00177908735358,173.79482906870587</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>-35.00151014435725,173.7956212400235</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-35.001721155734415,173.79133261340232</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-35.00183495305494,173.7922175890011</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-35.0019035196579,173.79309963275293</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-35.00187210473872,173.79397442172157</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-35.001706592916186,173.7948096822647</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-35.001412473307404,173.79558230128717</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-35.00179264613423,173.79132051703877</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-35.00193464652076,173.79220278492468</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-35.00194923897142,173.79309663979456</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-35.00193505705411,173.7939788541033</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>-35.001749723633424,173.79482121626404</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>-35.001429951285864,173.7955892692646</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-35.00168954099114,173.79133796269355</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-35.00186507718062,173.79221311569387</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-35.00196537578811,173.7930955834171</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-35.00187579546076,173.79397468157975</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-35.00171989024955,173.79481323823094</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-35.00137623220344,173.79556785299064</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr"/>
+      <c r="C496" t="inlineStr"/>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-35.00148315630552,173.79561048062635</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-35.001661364574176,173.79134273020833</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-35.00179640286825,173.79222331353876</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-35.001834580534805,173.79310414576207</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-35.00184554954344,173.7939725520109</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-35.001749332247606,173.79482111159973</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-35.00143003696222,173.79558930342137</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr"/>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-35.00188602226628,173.7931007781973</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-35.001894609141374,173.7939760062232</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-35.00176741427198,173.79482594709134</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-35.00147570246247,173.7956075089846</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0044/nzd0044.xlsx
+++ b/data/nzd0044/nzd0044.xlsx
@@ -20732,7 +20732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20823,35 +20823,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -20910,27 +20915,28 @@
       <c r="P2" t="n">
         <v>385.758692331104</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.7907603226016 -35.005103306125804, 173.79216025817968 -34.99682943143335)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.7907603226016</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.0051033061258</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.7921602581797</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.99682943143335</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.7914602903907</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.00096636877957</v>
       </c>
     </row>
@@ -20987,27 +20993,28 @@
       <c r="P3" t="n">
         <v>375.1869498916639</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.79171557594427 -35.005215476665406, 173.79294687344344 -34.996923529448736)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.7917155759443</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.00521547666541</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.7929468734434</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.99692352944874</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.7923312246938</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.00106950305707</v>
       </c>
     </row>
@@ -21064,27 +21071,28 @@
       <c r="P4" t="n">
         <v>378.0432757669631</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.79287626056208 -35.00531555000542, 173.79342230836937 -34.99697419189938)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.7928762605621</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.00531555000542</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.7934223083694</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.99697419189938</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.7931492844657</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.0011448709524</v>
       </c>
     </row>
@@ -21141,27 +21149,28 @@
       <c r="P5" t="n">
         <v>382.2092642202231</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.79421725708465 -35.00532088809954, 173.79363009976052 -34.99698142347917)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.7942172570847</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.00532088809954</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.7936300997605</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.99698142347917</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.7939236784226</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.00115115578936</v>
       </c>
     </row>
@@ -21218,27 +21227,28 @@
       <c r="P6" t="n">
         <v>386.4992947551759</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.79573522612935 -35.00516745618985, 173.79355343253243 -34.99700863046942)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.7957352261294</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.00516745618985</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.7935534325324</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.99700863046942</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.7946443293309</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.00108804332964</v>
       </c>
     </row>
@@ -21295,27 +21305,28 @@
       <c r="P7" t="n">
         <v>396.9506680958588</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.79695713507795 -35.00486085183874, 173.7937923371934 -34.99692238689677)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.7969571350779</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.00486085183874</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.7937923371934</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.99692238689677</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.7953747361357</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.00089161936776</v>
       </c>
     </row>

--- a/data/nzd0044/nzd0044.xlsx
+++ b/data/nzd0044/nzd0044.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H498"/>
+  <dimension ref="A1:H502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14925,6 +14925,124 @@
         <v>395.11</v>
       </c>
       <c r="H498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>366.99</v>
+      </c>
+      <c r="C499" t="n">
+        <v>373.4828571428571</v>
+      </c>
+      <c r="D499" t="n">
+        <v>379.2366666666667</v>
+      </c>
+      <c r="E499" t="n">
+        <v>372.18</v>
+      </c>
+      <c r="F499" t="n">
+        <v>376.1466666666667</v>
+      </c>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>388.55</v>
+      </c>
+      <c r="C500" t="n">
+        <v>372.9814285714286</v>
+      </c>
+      <c r="D500" t="n">
+        <v>372.5944444444444</v>
+      </c>
+      <c r="E500" t="n">
+        <v>372.6533333333334</v>
+      </c>
+      <c r="F500" t="n">
+        <v>377.0244444444445</v>
+      </c>
+      <c r="G500" t="n">
+        <v>381.72</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>379.01</v>
+      </c>
+      <c r="C501" t="n">
+        <v>369.0785714285714</v>
+      </c>
+      <c r="D501" t="n">
+        <v>365.2466666666666</v>
+      </c>
+      <c r="E501" t="n">
+        <v>361.08</v>
+      </c>
+      <c r="F501" t="n">
+        <v>368.0566666666667</v>
+      </c>
+      <c r="G501" t="n">
+        <v>371.76</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>388.635</v>
+      </c>
+      <c r="C502" t="n">
+        <v>387.4571428571429</v>
+      </c>
+      <c r="D502" t="n">
+        <v>384.5733333333333</v>
+      </c>
+      <c r="E502" t="n">
+        <v>382.5</v>
+      </c>
+      <c r="F502" t="n">
+        <v>380.3733333333333</v>
+      </c>
+      <c r="G502" t="n">
+        <v>391.93</v>
+      </c>
+      <c r="H502" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14941,7 +15059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B577"/>
+  <dimension ref="A1:B581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20719,6 +20837,46 @@
       </c>
       <c r="B577" t="n">
         <v>-0.29</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -20892,28 +21050,28 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01409365708817077</v>
+        <v>-0.02129498970886834</v>
       </c>
       <c r="J2" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K2" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001387723494074011</v>
+        <v>0.0003189135896852768</v>
       </c>
       <c r="M2" t="n">
-        <v>7.073294647674388</v>
+        <v>7.081103359780411</v>
       </c>
       <c r="N2" t="n">
-        <v>82.26554041233244</v>
+        <v>82.41308034852933</v>
       </c>
       <c r="O2" t="n">
-        <v>9.070035303808494</v>
+        <v>9.078165032016621</v>
       </c>
       <c r="P2" t="n">
-        <v>385.758692331104</v>
+        <v>385.8270351381154</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20970,28 +21128,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02300008299516878</v>
+        <v>0.02298700075258441</v>
       </c>
       <c r="J3" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K3" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004077844323975288</v>
+        <v>0.0004120589426991339</v>
       </c>
       <c r="M3" t="n">
-        <v>6.971609333454362</v>
+        <v>6.962027780307872</v>
       </c>
       <c r="N3" t="n">
-        <v>74.83435212414344</v>
+        <v>74.60658406861626</v>
       </c>
       <c r="O3" t="n">
-        <v>8.650685066753004</v>
+        <v>8.637510293401466</v>
       </c>
       <c r="P3" t="n">
-        <v>375.1869498916639</v>
+        <v>375.1869126563711</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21048,28 +21206,28 @@
         <v>0.1005</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03174166939522723</v>
+        <v>-0.03461655606864966</v>
       </c>
       <c r="J4" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K4" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008547176040152316</v>
+        <v>0.001026732592339985</v>
       </c>
       <c r="M4" t="n">
-        <v>6.451256821242787</v>
+        <v>6.452294241269115</v>
       </c>
       <c r="N4" t="n">
-        <v>67.7256882463135</v>
+        <v>67.62222948114827</v>
       </c>
       <c r="O4" t="n">
-        <v>8.22956185020281</v>
+        <v>8.223273647468401</v>
       </c>
       <c r="P4" t="n">
-        <v>378.0432757669631</v>
+        <v>378.0706743310366</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21126,28 +21284,28 @@
         <v>0.0868</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07164773806019453</v>
+        <v>-0.08461584945783718</v>
       </c>
       <c r="J5" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K5" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004689582900041511</v>
+        <v>0.006529950151878072</v>
       </c>
       <c r="M5" t="n">
-        <v>6.133955061214563</v>
+        <v>6.165007822627798</v>
       </c>
       <c r="N5" t="n">
-        <v>62.97594445923837</v>
+        <v>63.49971204054776</v>
       </c>
       <c r="O5" t="n">
-        <v>7.935738431881331</v>
+        <v>7.968670657051134</v>
       </c>
       <c r="P5" t="n">
-        <v>382.2092642202231</v>
+        <v>382.3324834892895</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21204,28 +21362,28 @@
         <v>0.102</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03200936856363899</v>
+        <v>-0.04828948084162069</v>
       </c>
       <c r="J6" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K6" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005431618820616047</v>
+        <v>0.001244880437339502</v>
       </c>
       <c r="M6" t="n">
-        <v>8.260683806563266</v>
+        <v>8.277814752276731</v>
       </c>
       <c r="N6" t="n">
-        <v>109.0117091310257</v>
+        <v>109.1346035578518</v>
       </c>
       <c r="O6" t="n">
-        <v>10.44086725952522</v>
+        <v>10.44675086128945</v>
       </c>
       <c r="P6" t="n">
-        <v>386.4992947551759</v>
+        <v>386.6529902028816</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21282,28 +21440,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1395702053408728</v>
+        <v>-0.1538788553766876</v>
       </c>
       <c r="J7" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K7" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01002805020243103</v>
+        <v>0.01218059076633693</v>
       </c>
       <c r="M7" t="n">
-        <v>8.559959356321029</v>
+        <v>8.583286176449764</v>
       </c>
       <c r="N7" t="n">
-        <v>111.0189137839834</v>
+        <v>111.608627410298</v>
       </c>
       <c r="O7" t="n">
-        <v>10.53655132308401</v>
+        <v>10.56449844575208</v>
       </c>
       <c r="P7" t="n">
-        <v>396.9506680958588</v>
+        <v>397.0869925439838</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21341,7 +21499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H498"/>
+  <dimension ref="A1:H502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41349,6 +41507,170 @@
         </is>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-35.00182582375205,173.79131490329178</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-35.0018726977149,173.79221198407575</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-35.00190097858445,173.79309979910107</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-35.00197061400975,173.79398135762074</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-35.00185504555069,173.79484938146388</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-35.00163327746414,173.79134748260904</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-35.00187718564701,173.79221131763614</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-35.00196078384834,173.793095884023</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-35.00196635317626,173.79398105762107</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-35.00184731568158,173.79484731433874</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>-35.001590423094676,173.79565324500305</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-35.00171847651888,173.79133306673225</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-35.00191211735765,173.79220613041724</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-35.00202694179509,173.79309155306865</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-35.002070533554416,173.79398839283485</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>-35.00192628754465,173.7948684330503</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>-35.001675756725234,173.79568726530755</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-35.00163251835304,173.7913476110523</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-35.00174762377567,173.7922305570179</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-35.001852928285835,173.79310294465125</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-35.00187771583646,173.79397481679055</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-35.00181782476271,173.79483942786746</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>-35.00150294754358,173.7956183708502</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0044/nzd0044.xlsx
+++ b/data/nzd0044/nzd0044.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H502"/>
+  <dimension ref="A1:H506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15043,6 +15043,126 @@
         <v>391.93</v>
       </c>
       <c r="H502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>384.605</v>
+      </c>
+      <c r="C503" t="n">
+        <v>376.3828571428572</v>
+      </c>
+      <c r="D503" t="n">
+        <v>378.2166666666667</v>
+      </c>
+      <c r="E503" t="n">
+        <v>370.17</v>
+      </c>
+      <c r="F503" t="n">
+        <v>372.5166666666667</v>
+      </c>
+      <c r="G503" t="n">
+        <v>372.49</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>398.675</v>
+      </c>
+      <c r="C504" t="n">
+        <v>399.5714285714286</v>
+      </c>
+      <c r="D504" t="n">
+        <v>386.6011111111111</v>
+      </c>
+      <c r="E504" t="n">
+        <v>386.0033333333333</v>
+      </c>
+      <c r="F504" t="n">
+        <v>382.5011111111111</v>
+      </c>
+      <c r="G504" t="n">
+        <v>384.93</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>390.565</v>
+      </c>
+      <c r="C505" t="n">
+        <v>392.4185714285715</v>
+      </c>
+      <c r="D505" t="n">
+        <v>385.4611111111111</v>
+      </c>
+      <c r="E505" t="n">
+        <v>382.7833333333334</v>
+      </c>
+      <c r="F505" t="n">
+        <v>381.9411111111111</v>
+      </c>
+      <c r="G505" t="n">
+        <v>378.32</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>386.3</v>
+      </c>
+      <c r="C506" t="n">
+        <v>372.67</v>
+      </c>
+      <c r="D506" t="n">
+        <v>363.9233333333333</v>
+      </c>
+      <c r="E506" t="n">
+        <v>368.02</v>
+      </c>
+      <c r="F506" t="n">
+        <v>365.5533333333333</v>
+      </c>
+      <c r="G506" t="n">
+        <v>373.6</v>
+      </c>
+      <c r="H506" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15059,7 +15179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B581"/>
+  <dimension ref="A1:B585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20877,6 +20997,46 @@
       </c>
       <c r="B581" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -21050,28 +21210,28 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02129498970886834</v>
+        <v>-0.01389597377464988</v>
       </c>
       <c r="J2" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K2" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003189135896852768</v>
+        <v>0.0001374048874817069</v>
       </c>
       <c r="M2" t="n">
-        <v>7.081103359780411</v>
+        <v>7.062150721475088</v>
       </c>
       <c r="N2" t="n">
-        <v>82.41308034852933</v>
+        <v>82.15189753037644</v>
       </c>
       <c r="O2" t="n">
-        <v>9.078165032016621</v>
+        <v>9.063768395671662</v>
       </c>
       <c r="P2" t="n">
-        <v>385.8270351381154</v>
+        <v>385.7560530683394</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21128,28 +21288,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02298700075258441</v>
+        <v>0.0378206032142244</v>
       </c>
       <c r="J3" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K3" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004120589426991339</v>
+        <v>0.001106632988298162</v>
       </c>
       <c r="M3" t="n">
-        <v>6.962027780307872</v>
+        <v>6.995607310094785</v>
       </c>
       <c r="N3" t="n">
-        <v>74.60658406861626</v>
+        <v>75.77962117102307</v>
       </c>
       <c r="O3" t="n">
-        <v>8.637510293401466</v>
+        <v>8.70514911825312</v>
       </c>
       <c r="P3" t="n">
-        <v>375.1869126563711</v>
+        <v>375.0447498209397</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21206,28 +21366,28 @@
         <v>0.1005</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03461655606864966</v>
+        <v>-0.03249061368267492</v>
       </c>
       <c r="J4" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K4" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001026732592339985</v>
+        <v>0.0009104489803321014</v>
       </c>
       <c r="M4" t="n">
-        <v>6.452294241269115</v>
+        <v>6.464808852281396</v>
       </c>
       <c r="N4" t="n">
-        <v>67.62222948114827</v>
+        <v>67.75724825633871</v>
       </c>
       <c r="O4" t="n">
-        <v>8.223273647468401</v>
+        <v>8.23147910501744</v>
       </c>
       <c r="P4" t="n">
-        <v>378.0706743310366</v>
+        <v>378.0503616164227</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21284,28 +21444,28 @@
         <v>0.0868</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08461584945783718</v>
+        <v>-0.08988968762953534</v>
       </c>
       <c r="J5" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K5" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006529950151878072</v>
+        <v>0.007416020683261637</v>
       </c>
       <c r="M5" t="n">
-        <v>6.165007822627798</v>
+        <v>6.179748695010717</v>
       </c>
       <c r="N5" t="n">
-        <v>63.49971204054776</v>
+        <v>63.56943257066166</v>
       </c>
       <c r="O5" t="n">
-        <v>7.968670657051134</v>
+        <v>7.973044121956285</v>
       </c>
       <c r="P5" t="n">
-        <v>382.3324834892895</v>
+        <v>382.3829297549095</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21362,28 +21522,28 @@
         <v>0.102</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04828948084162069</v>
+        <v>-0.06355115751057311</v>
       </c>
       <c r="J6" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K6" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001244880437339502</v>
+        <v>0.002167207713369868</v>
       </c>
       <c r="M6" t="n">
-        <v>8.277814752276731</v>
+        <v>8.289611408051233</v>
       </c>
       <c r="N6" t="n">
-        <v>109.1346035578518</v>
+        <v>109.4199496078531</v>
       </c>
       <c r="O6" t="n">
-        <v>10.44675086128945</v>
+        <v>10.46039911321997</v>
       </c>
       <c r="P6" t="n">
-        <v>386.6529902028816</v>
+        <v>386.7979440841469</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21440,28 +21600,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1538788553766876</v>
+        <v>-0.1794614685385568</v>
       </c>
       <c r="J7" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K7" t="n">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01218059076633693</v>
+        <v>0.01643840349654924</v>
       </c>
       <c r="M7" t="n">
-        <v>8.583286176449764</v>
+        <v>8.654877885492278</v>
       </c>
       <c r="N7" t="n">
-        <v>111.608627410298</v>
+        <v>112.9846161292313</v>
       </c>
       <c r="O7" t="n">
-        <v>10.56449844575208</v>
+        <v>10.62942219169186</v>
       </c>
       <c r="P7" t="n">
-        <v>397.0869925439838</v>
+        <v>397.3319050603219</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21499,7 +21659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H502"/>
+  <dimension ref="A1:H506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41671,6 +41831,174 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-35.00166850914903,173.79134152133008</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-35.00184674186816,173.79221583841178</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-35.00191016246409,173.79309919789</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-35.00198870754909,173.79398263156347</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-35.00188701198361,173.79485792994652</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>-35.00166950235312,173.79568477184904</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-35.001542853936286,173.79136278244746</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-35.001639197376015,173.79224665782866</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-35.00183467057283,173.79310413986784</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-35.001846179666714,173.79397259637688</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>-35.00179908716789,173.7948344170568</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>-35.00156292098834,173.7956422806432</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-35.00161528206597,173.7913505274683</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-35.00170321753954,173.79223715114014</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-35.00184493490904,173.79310346792695</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-35.00187516533749,173.79397463721372</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-35.00180401862891,173.79483573582866</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-35.0016195530502,173.79566485835187</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>-35.00165337158104,173.79134408264062</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>-35.00187997302364,173.79221090372207</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>-35.0020388568282,173.793090773064</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>-35.002008061334855,173.79398399423923</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>-35.00194833234701,173.79487432829472</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>-35.001659992280324,173.79568098042657</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0044/nzd0044.xlsx
+++ b/data/nzd0044/nzd0044.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H506"/>
+  <dimension ref="A1:H507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15163,6 +15163,36 @@
         <v>373.6</v>
       </c>
       <c r="H506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>380.05</v>
+      </c>
+      <c r="C507" t="n">
+        <v>369.3514285714285</v>
+      </c>
+      <c r="D507" t="n">
+        <v>370.3066666666667</v>
+      </c>
+      <c r="E507" t="n">
+        <v>370.85</v>
+      </c>
+      <c r="F507" t="n">
+        <v>376.0966666666667</v>
+      </c>
+      <c r="G507" t="n">
+        <v>383.28</v>
+      </c>
+      <c r="H507" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15179,7 +15209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B585"/>
+  <dimension ref="A1:B586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21037,6 +21067,16 @@
       </c>
       <c r="B585" t="n">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -21210,28 +21250,28 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01389597377464988</v>
+        <v>-0.01596986932621032</v>
       </c>
       <c r="J2" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K2" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001374048874817069</v>
+        <v>0.000182096925580244</v>
       </c>
       <c r="M2" t="n">
-        <v>7.062150721475088</v>
+        <v>7.058995838515038</v>
       </c>
       <c r="N2" t="n">
-        <v>82.15189753037644</v>
+        <v>82.0380511540089</v>
       </c>
       <c r="O2" t="n">
-        <v>9.063768395671662</v>
+        <v>9.057485917958079</v>
       </c>
       <c r="P2" t="n">
-        <v>385.7560530683394</v>
+        <v>385.7759920255073</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21288,28 +21328,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0378206032142244</v>
+        <v>0.03521778239250495</v>
       </c>
       <c r="J3" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K3" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001106632988298162</v>
+        <v>0.0009625197778314609</v>
       </c>
       <c r="M3" t="n">
-        <v>6.995607310094785</v>
+        <v>6.994833157588137</v>
       </c>
       <c r="N3" t="n">
-        <v>75.77962117102307</v>
+        <v>75.71184611052384</v>
       </c>
       <c r="O3" t="n">
-        <v>8.70514911825312</v>
+        <v>8.701255433012172</v>
       </c>
       <c r="P3" t="n">
-        <v>375.0447498209397</v>
+        <v>375.0697548793023</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21366,28 +21406,28 @@
         <v>0.1005</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03249061368267492</v>
+        <v>-0.03517540750571541</v>
       </c>
       <c r="J4" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K4" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0009104489803321014</v>
+        <v>0.001069850392757421</v>
       </c>
       <c r="M4" t="n">
-        <v>6.464808852281396</v>
+        <v>6.466461137121757</v>
       </c>
       <c r="N4" t="n">
-        <v>67.75724825633871</v>
+        <v>67.71399328237777</v>
       </c>
       <c r="O4" t="n">
-        <v>8.23147910501744</v>
+        <v>8.228851273560471</v>
       </c>
       <c r="P4" t="n">
-        <v>378.0503616164227</v>
+        <v>378.0761556163421</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21444,28 +21484,28 @@
         <v>0.0868</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08988968762953534</v>
+        <v>-0.09344388627514078</v>
       </c>
       <c r="J5" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K5" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007416020683261637</v>
+        <v>0.008019936773328795</v>
       </c>
       <c r="M5" t="n">
-        <v>6.179748695010717</v>
+        <v>6.187670055140252</v>
       </c>
       <c r="N5" t="n">
-        <v>63.56943257066166</v>
+        <v>63.613480652924</v>
       </c>
       <c r="O5" t="n">
-        <v>7.973044121956285</v>
+        <v>7.975805956323411</v>
       </c>
       <c r="P5" t="n">
-        <v>382.3829297549095</v>
+        <v>382.416996815141</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21522,28 +21562,28 @@
         <v>0.102</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06355115751057311</v>
+        <v>-0.06707593809167785</v>
       </c>
       <c r="J6" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K6" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002167207713369868</v>
+        <v>0.00242009302422419</v>
       </c>
       <c r="M6" t="n">
-        <v>8.289611408051233</v>
+        <v>8.291515923334877</v>
       </c>
       <c r="N6" t="n">
-        <v>109.4199496078531</v>
+        <v>109.3611162610517</v>
       </c>
       <c r="O6" t="n">
-        <v>10.46039911321997</v>
+        <v>10.45758654093055</v>
       </c>
       <c r="P6" t="n">
-        <v>386.7979440841469</v>
+        <v>386.8314894954697</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21600,28 +21640,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1794614685385568</v>
+        <v>-0.183268163348845</v>
       </c>
       <c r="J7" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K7" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01643840349654924</v>
+        <v>0.01717536736761294</v>
       </c>
       <c r="M7" t="n">
-        <v>8.654877885492278</v>
+        <v>8.658054205574533</v>
       </c>
       <c r="N7" t="n">
-        <v>112.9846161292313</v>
+        <v>112.929747438138</v>
       </c>
       <c r="O7" t="n">
-        <v>10.62942219169186</v>
+        <v>10.62684089643475</v>
       </c>
       <c r="P7" t="n">
-        <v>397.3319050603219</v>
+        <v>397.3684308001964</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21659,7 +21699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H506"/>
+  <dimension ref="A1:H507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41999,6 +42039,48 @@
         </is>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-35.00170918857174,173.79133463827574</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-35.00190967520659,173.79220649306703</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-35.00198138254982,173.7930945355532</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-35.0019825863517,173.79398220057777</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-35.00185548585971,173.79484949921152</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-35.0015770575852,173.79564791652817</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0044/nzd0044.xlsx
+++ b/data/nzd0044/nzd0044.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H507"/>
+  <dimension ref="A1:H510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15193,6 +15193,96 @@
         <v>383.28</v>
       </c>
       <c r="H507" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>384.29</v>
+      </c>
+      <c r="C508" t="n">
+        <v>370.0557142857143</v>
+      </c>
+      <c r="D508" t="n">
+        <v>373.9844444444445</v>
+      </c>
+      <c r="E508" t="n">
+        <v>372.6133333333333</v>
+      </c>
+      <c r="F508" t="n">
+        <v>378.8644444444445</v>
+      </c>
+      <c r="G508" t="n">
+        <v>384.11</v>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>392.665</v>
+      </c>
+      <c r="C509" t="n">
+        <v>379.9514285714286</v>
+      </c>
+      <c r="D509" t="n">
+        <v>374.9988888888889</v>
+      </c>
+      <c r="E509" t="n">
+        <v>375.6266666666667</v>
+      </c>
+      <c r="F509" t="n">
+        <v>382.6388888888889</v>
+      </c>
+      <c r="G509" t="n">
+        <v>385.16</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>385.41</v>
+      </c>
+      <c r="C510" t="n">
+        <v>373.6614285714285</v>
+      </c>
+      <c r="D510" t="n">
+        <v>377.0055555555555</v>
+      </c>
+      <c r="E510" t="n">
+        <v>378.1166666666666</v>
+      </c>
+      <c r="F510" t="n">
+        <v>393.4455555555555</v>
+      </c>
+      <c r="G510" t="n">
+        <v>393.4500000000001</v>
+      </c>
+      <c r="H510" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15209,7 +15299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B586"/>
+  <dimension ref="A1:B589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21077,6 +21167,36 @@
       </c>
       <c r="B586" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -21250,28 +21370,28 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01596986932621032</v>
+        <v>-0.01357601836967534</v>
       </c>
       <c r="J2" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K2" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000182096925580244</v>
+        <v>0.000133055411406402</v>
       </c>
       <c r="M2" t="n">
-        <v>7.058995838515038</v>
+        <v>7.031538575976696</v>
       </c>
       <c r="N2" t="n">
-        <v>82.0380511540089</v>
+        <v>81.63406902858242</v>
       </c>
       <c r="O2" t="n">
-        <v>9.057485917958079</v>
+        <v>9.035157388146729</v>
       </c>
       <c r="P2" t="n">
-        <v>385.7759920255073</v>
+        <v>385.7529460437945</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21328,28 +21448,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03521778239250495</v>
+        <v>0.03358164343448754</v>
       </c>
       <c r="J3" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0009625197778314609</v>
+        <v>0.0008847622850933767</v>
       </c>
       <c r="M3" t="n">
-        <v>6.994833157588137</v>
+        <v>6.976029125107538</v>
       </c>
       <c r="N3" t="n">
-        <v>75.71184611052384</v>
+        <v>75.34720907491429</v>
       </c>
       <c r="O3" t="n">
-        <v>8.701255433012172</v>
+        <v>8.680277016023988</v>
       </c>
       <c r="P3" t="n">
-        <v>375.0697548793023</v>
+        <v>375.0854789248782</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21406,28 +21526,28 @@
         <v>0.1005</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03517540750571541</v>
+        <v>-0.0372817825535739</v>
       </c>
       <c r="J4" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K4" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001069850392757421</v>
+        <v>0.00121609266143563</v>
       </c>
       <c r="M4" t="n">
-        <v>6.466461137121757</v>
+        <v>6.437510058916143</v>
       </c>
       <c r="N4" t="n">
-        <v>67.71399328237777</v>
+        <v>67.3163945900849</v>
       </c>
       <c r="O4" t="n">
-        <v>8.228851273560471</v>
+        <v>8.204656884360546</v>
       </c>
       <c r="P4" t="n">
-        <v>378.0761556163421</v>
+        <v>378.0964045496355</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21484,28 +21604,28 @@
         <v>0.0868</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09344388627514078</v>
+        <v>-0.09862102704870693</v>
       </c>
       <c r="J5" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K5" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008019936773328795</v>
+        <v>0.009011941590521766</v>
       </c>
       <c r="M5" t="n">
-        <v>6.187670055140252</v>
+        <v>6.178966371453322</v>
       </c>
       <c r="N5" t="n">
-        <v>63.613480652924</v>
+        <v>63.37216540871069</v>
       </c>
       <c r="O5" t="n">
-        <v>7.975805956323411</v>
+        <v>7.960663628662543</v>
       </c>
       <c r="P5" t="n">
-        <v>382.416996815141</v>
+        <v>382.4666579228052</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21562,28 +21682,28 @@
         <v>0.102</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06707593809167785</v>
+        <v>-0.06719872088605718</v>
       </c>
       <c r="J6" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K6" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00242009302422419</v>
+        <v>0.002454125967080056</v>
       </c>
       <c r="M6" t="n">
-        <v>8.291515923334877</v>
+        <v>8.275071619937599</v>
       </c>
       <c r="N6" t="n">
-        <v>109.3611162610517</v>
+        <v>108.9126784405968</v>
       </c>
       <c r="O6" t="n">
-        <v>10.45758654093055</v>
+        <v>10.43612372677695</v>
       </c>
       <c r="P6" t="n">
-        <v>386.8314894954697</v>
+        <v>386.832600565712</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21640,28 +21760,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.183268163348845</v>
+        <v>-0.1892913296488491</v>
       </c>
       <c r="J7" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K7" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01717536736761294</v>
+        <v>0.01848951079980865</v>
       </c>
       <c r="M7" t="n">
-        <v>8.658054205574533</v>
+        <v>8.64005464475491</v>
       </c>
       <c r="N7" t="n">
-        <v>112.929747438138</v>
+        <v>112.4660875361893</v>
       </c>
       <c r="O7" t="n">
-        <v>10.62684089643475</v>
+        <v>10.60500294842907</v>
       </c>
       <c r="P7" t="n">
-        <v>397.3684308001964</v>
+        <v>397.4262536810492</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21699,7 +21819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H507"/>
+  <dimension ref="A1:H510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42081,6 +42201,132 @@
         </is>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>-35.00167132232537,173.79134104533418</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>-35.00190337164389,173.79220742912102</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>-35.00194826856148,173.79309670332128</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-35.001966713246695,173.79398108297315</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>-35.001831112310185,173.79484298122705</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>-35.00156994644864,173.795645081507</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>-35.00159652755661,173.79135370076943</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>-35.00181480211163,173.79222058133055</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>-35.00193913470304,173.79309730125823</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-35.00193958794047,173.79397917311678</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>-35.00179787387193,173.79483409259709</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>-35.001560950432406,173.79564149503514</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>-35.001661319920586,173.7913427377638</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>-35.001871099448486,173.7922122214118</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>-35.001921067070626,173.79309848403358</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>-35.00191717355565,173.79397759495117</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>-35.001702708411855,173.79480864347272</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>-35.00148992473765,173.79561317901417</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0044/nzd0044.xlsx
+++ b/data/nzd0044/nzd0044.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H510"/>
+  <dimension ref="A1:H514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15283,6 +15283,126 @@
         <v>393.4500000000001</v>
       </c>
       <c r="H510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>386.57</v>
+      </c>
+      <c r="C511" t="n">
+        <v>378.0942857142857</v>
+      </c>
+      <c r="D511" t="n">
+        <v>371.9555555555555</v>
+      </c>
+      <c r="E511" t="n">
+        <v>374.8366666666666</v>
+      </c>
+      <c r="F511" t="n">
+        <v>381.4555555555555</v>
+      </c>
+      <c r="G511" t="n">
+        <v>384.93</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>381.065</v>
+      </c>
+      <c r="C512" t="n">
+        <v>375.3571428571428</v>
+      </c>
+      <c r="D512" t="n">
+        <v>373.0455555555556</v>
+      </c>
+      <c r="E512" t="n">
+        <v>373.8766666666667</v>
+      </c>
+      <c r="F512" t="n">
+        <v>381.0355555555556</v>
+      </c>
+      <c r="G512" t="n">
+        <v>383.88</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>392.32</v>
+      </c>
+      <c r="C513" t="n">
+        <v>381.1485714285715</v>
+      </c>
+      <c r="D513" t="n">
+        <v>372.9533333333333</v>
+      </c>
+      <c r="E513" t="n">
+        <v>375.67</v>
+      </c>
+      <c r="F513" t="n">
+        <v>381.4533333333333</v>
+      </c>
+      <c r="G513" t="n">
+        <v>386.08</v>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>384.285</v>
+      </c>
+      <c r="C514" t="n">
+        <v>369.7571428571428</v>
+      </c>
+      <c r="D514" t="n">
+        <v>379.1422222222222</v>
+      </c>
+      <c r="E514" t="n">
+        <v>380.4766666666666</v>
+      </c>
+      <c r="F514" t="n">
+        <v>388.8622222222222</v>
+      </c>
+      <c r="G514" t="n">
+        <v>391.41</v>
+      </c>
+      <c r="H514" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15299,7 +15419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B589"/>
+  <dimension ref="A1:B593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21197,6 +21317,46 @@
       </c>
       <c r="B589" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -21370,28 +21530,28 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01357601836967534</v>
+        <v>-0.01258399819724881</v>
       </c>
       <c r="J2" t="n">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K2" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000133055411406402</v>
+        <v>0.0001159874475953337</v>
       </c>
       <c r="M2" t="n">
-        <v>7.031538575976696</v>
+        <v>7.000997763906402</v>
       </c>
       <c r="N2" t="n">
-        <v>81.63406902858242</v>
+        <v>81.09692613034245</v>
       </c>
       <c r="O2" t="n">
-        <v>9.035157388146729</v>
+        <v>9.00538317509824</v>
       </c>
       <c r="P2" t="n">
-        <v>385.7529460437945</v>
+        <v>385.7433326767576</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21448,28 +21608,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03358164343448754</v>
+        <v>0.0337770006823547</v>
       </c>
       <c r="J3" t="n">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K3" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008847622850933767</v>
+        <v>0.0009079639067895995</v>
       </c>
       <c r="M3" t="n">
-        <v>6.976029125107538</v>
+        <v>6.946918437824269</v>
       </c>
       <c r="N3" t="n">
-        <v>75.34720907491429</v>
+        <v>74.85871685248381</v>
       </c>
       <c r="O3" t="n">
-        <v>8.680277016023988</v>
+        <v>8.652093206414492</v>
       </c>
       <c r="P3" t="n">
-        <v>375.0854789248782</v>
+        <v>375.0836317674734</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21526,28 +21686,28 @@
         <v>0.1005</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0372817825535739</v>
+        <v>-0.04156394459992046</v>
       </c>
       <c r="J4" t="n">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K4" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00121609266143563</v>
+        <v>0.001532753498612371</v>
       </c>
       <c r="M4" t="n">
-        <v>6.437510058916143</v>
+        <v>6.416359726144746</v>
       </c>
       <c r="N4" t="n">
-        <v>67.3163945900849</v>
+        <v>66.88738446944573</v>
       </c>
       <c r="O4" t="n">
-        <v>8.204656884360546</v>
+        <v>8.178470790401207</v>
       </c>
       <c r="P4" t="n">
-        <v>378.0964045496355</v>
+        <v>378.137699843522</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21604,28 +21764,28 @@
         <v>0.0868</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09862102704870693</v>
+        <v>-0.1041249517850035</v>
       </c>
       <c r="J5" t="n">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K5" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009011941590521766</v>
+        <v>0.01017080711022</v>
       </c>
       <c r="M5" t="n">
-        <v>6.178966371453322</v>
+        <v>6.162371714576524</v>
       </c>
       <c r="N5" t="n">
-        <v>63.37216540871069</v>
+        <v>63.00840731894499</v>
       </c>
       <c r="O5" t="n">
-        <v>7.960663628662543</v>
+        <v>7.937783526838269</v>
       </c>
       <c r="P5" t="n">
-        <v>382.4666579228052</v>
+        <v>382.519629909231</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21682,28 +21842,28 @@
         <v>0.102</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06719872088605718</v>
+        <v>-0.07002919881526447</v>
       </c>
       <c r="J6" t="n">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K6" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002454125967080056</v>
+        <v>0.002705835819383218</v>
       </c>
       <c r="M6" t="n">
-        <v>8.275071619937599</v>
+        <v>8.23758490912874</v>
       </c>
       <c r="N6" t="n">
-        <v>108.9126784405968</v>
+        <v>108.1234681360429</v>
       </c>
       <c r="O6" t="n">
-        <v>10.43612372677695</v>
+        <v>10.39824351205736</v>
       </c>
       <c r="P6" t="n">
-        <v>386.832600565712</v>
+        <v>386.8596160455452</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21760,28 +21920,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1892913296488491</v>
+        <v>-0.1985522937570582</v>
       </c>
       <c r="J7" t="n">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K7" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01848951079980865</v>
+        <v>0.02057662606991673</v>
       </c>
       <c r="M7" t="n">
-        <v>8.64005464475491</v>
+        <v>8.618512397108653</v>
       </c>
       <c r="N7" t="n">
-        <v>112.4660875361893</v>
+        <v>111.8600790225019</v>
       </c>
       <c r="O7" t="n">
-        <v>10.60500294842907</v>
+        <v>10.57639253349184</v>
       </c>
       <c r="P7" t="n">
-        <v>397.4262536810492</v>
+        <v>397.5155005491205</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21819,7 +21979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H510"/>
+  <dimension ref="A1:H514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42327,6 +42487,174 @@
         </is>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>-35.001650960287016,173.79134449063693</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>-35.00183142408264,173.7922181130386</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>-35.00196653627834,173.793095507447</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>-35.0019466993316,173.79397967382013</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>-35.0018082945187,173.79483687928774</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>-35.00156292098834,173.7956422806432</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>-35.001700123892526,173.7913361720414</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>-35.00185592231053,173.79221447515428</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>-35.00195672213254,173.79309614991837</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>-35.00195534102209,173.79398028226993</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>-35.00181199311443,173.79483786836684</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>-35.00157191700456,173.7956458671152</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>-35.00159960865458,173.79135317944147</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>-35.00180408733335,173.792222172429</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>-35.00195755248332,173.79309609556046</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>-35.00193919786416,173.79397914565206</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>-35.00180831408799,173.79483688452095</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>-35.00155306820853,173.79563835260333</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-35.00167136697897,173.79134103777872</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-35.00190604394532,173.7922070322949</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-35.00190182894369,173.79309974343337</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-35.001895929399666,173.79397609918067</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-35.00174307007459,173.79481943697115</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>-35.001507402713955,173.79562014700505</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0044/nzd0044.xlsx
+++ b/data/nzd0044/nzd0044.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H514"/>
+  <dimension ref="A1:H516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15403,6 +15403,66 @@
         <v>391.41</v>
       </c>
       <c r="H514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="C515" t="n">
+        <v>362.0485714285714</v>
+      </c>
+      <c r="D515" t="n">
+        <v>363.4811111111111</v>
+      </c>
+      <c r="E515" t="n">
+        <v>365.1133333333333</v>
+      </c>
+      <c r="F515" t="n">
+        <v>373.9011111111111</v>
+      </c>
+      <c r="G515" t="n">
+        <v>380.68</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>379.355</v>
+      </c>
+      <c r="C516" t="n">
+        <v>366.79</v>
+      </c>
+      <c r="D516" t="n">
+        <v>364.1966666666667</v>
+      </c>
+      <c r="E516" t="n">
+        <v>368.52</v>
+      </c>
+      <c r="F516" t="n">
+        <v>378.6066666666667</v>
+      </c>
+      <c r="G516" t="n">
+        <v>379.16</v>
+      </c>
+      <c r="H516" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15419,7 +15479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B593"/>
+  <dimension ref="A1:B595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21357,6 +21417,26 @@
       </c>
       <c r="B593" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -21530,28 +21610,28 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01258399819724881</v>
+        <v>-0.01972220866283448</v>
       </c>
       <c r="J2" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K2" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001159874475953337</v>
+        <v>0.0002856195882082746</v>
       </c>
       <c r="M2" t="n">
-        <v>7.000997763906402</v>
+        <v>7.012974590932733</v>
       </c>
       <c r="N2" t="n">
-        <v>81.09692613034245</v>
+        <v>81.18917593239003</v>
       </c>
       <c r="O2" t="n">
-        <v>9.00538317509824</v>
+        <v>9.010503644768701</v>
       </c>
       <c r="P2" t="n">
-        <v>385.7433326767576</v>
+        <v>385.8125281860064</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21608,28 +21688,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0337770006823547</v>
+        <v>0.02513410682488242</v>
       </c>
       <c r="J3" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K3" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0009079639067895995</v>
+        <v>0.0005031160439086246</v>
       </c>
       <c r="M3" t="n">
-        <v>6.946918437824269</v>
+        <v>6.965994267038092</v>
       </c>
       <c r="N3" t="n">
-        <v>74.85871685248381</v>
+        <v>75.12117931330975</v>
       </c>
       <c r="O3" t="n">
-        <v>8.652093206414492</v>
+        <v>8.667247505021981</v>
       </c>
       <c r="P3" t="n">
-        <v>375.0836317674734</v>
+        <v>375.1673570969093</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21686,28 +21766,28 @@
         <v>0.1005</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04156394459992046</v>
+        <v>-0.05142834682563081</v>
       </c>
       <c r="J4" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K4" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001532753498612371</v>
+        <v>0.002338384422072903</v>
       </c>
       <c r="M4" t="n">
-        <v>6.416359726144746</v>
+        <v>6.445893448150136</v>
       </c>
       <c r="N4" t="n">
-        <v>66.88738446944573</v>
+        <v>67.32857877792701</v>
       </c>
       <c r="O4" t="n">
-        <v>8.178470790401207</v>
+        <v>8.205399367363359</v>
       </c>
       <c r="P4" t="n">
-        <v>378.137699843522</v>
+        <v>378.2332565036118</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21764,28 +21844,28 @@
         <v>0.0868</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1041249517850035</v>
+        <v>-0.1137528595723596</v>
       </c>
       <c r="J5" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K5" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01017080711022</v>
+        <v>0.01207631197827919</v>
       </c>
       <c r="M5" t="n">
-        <v>6.162371714576524</v>
+        <v>6.193911167821053</v>
       </c>
       <c r="N5" t="n">
-        <v>63.00840731894499</v>
+        <v>63.45273798082067</v>
       </c>
       <c r="O5" t="n">
-        <v>7.937783526838269</v>
+        <v>7.965722690429329</v>
       </c>
       <c r="P5" t="n">
-        <v>382.519629909231</v>
+        <v>382.6126839542159</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21842,28 +21922,28 @@
         <v>0.102</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07002919881526447</v>
+        <v>-0.07658637886126542</v>
       </c>
       <c r="J6" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K6" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002705835819383218</v>
+        <v>0.003250650894342177</v>
       </c>
       <c r="M6" t="n">
-        <v>8.23758490912874</v>
+        <v>8.239888963200773</v>
       </c>
       <c r="N6" t="n">
-        <v>108.1234681360429</v>
+        <v>108.0143367752605</v>
       </c>
       <c r="O6" t="n">
-        <v>10.39824351205736</v>
+        <v>10.39299460094445</v>
       </c>
       <c r="P6" t="n">
-        <v>386.8596160455452</v>
+        <v>386.9225337107815</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21920,28 +22000,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1985522937570582</v>
+        <v>-0.208179445285003</v>
       </c>
       <c r="J7" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K7" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02057662606991673</v>
+        <v>0.0226266335140165</v>
       </c>
       <c r="M7" t="n">
-        <v>8.618512397108653</v>
+        <v>8.636499701075099</v>
       </c>
       <c r="N7" t="n">
-        <v>111.8600790225019</v>
+        <v>112.0404100593204</v>
       </c>
       <c r="O7" t="n">
-        <v>10.57639253349184</v>
+        <v>10.58491426792491</v>
       </c>
       <c r="P7" t="n">
-        <v>397.5155005491205</v>
+        <v>397.6086441000297</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21979,7 +22059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H514"/>
+  <dimension ref="A1:H516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42655,6 +42735,90 @@
         </is>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-35.00177840163872,173.79132292724643</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-35.001975037908714,173.79219678695725</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-35.00204283851013,173.7930905124075</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-35.00203422645286,173.79398583649353</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-35.00187482031693,173.7948546696429</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>-35.00159933343416,173.79565679732065</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>-35.001715395421044,173.7913335880616</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>-35.00193260073977,173.7922030887152</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>-35.00203639578862,173.7930909341733</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-35.002003560454455,173.79398367733782</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>-35.00183338234773,173.79484358828125</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>-35.00161235623778,173.7956619891708</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0044/nzd0044.xlsx
+++ b/data/nzd0044/nzd0044.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H516"/>
+  <dimension ref="A1:H518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15463,6 +15463,66 @@
         <v>379.16</v>
       </c>
       <c r="H516" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>384.575</v>
+      </c>
+      <c r="C517" t="n">
+        <v>367.0071428571428</v>
+      </c>
+      <c r="D517" t="n">
+        <v>371.0366666666667</v>
+      </c>
+      <c r="E517" t="n">
+        <v>372.61</v>
+      </c>
+      <c r="F517" t="n">
+        <v>387.1766666666667</v>
+      </c>
+      <c r="G517" t="n">
+        <v>392.46</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>384.82</v>
+      </c>
+      <c r="C518" t="n">
+        <v>365.2514285714286</v>
+      </c>
+      <c r="D518" t="n">
+        <v>370.6266666666667</v>
+      </c>
+      <c r="E518" t="n">
+        <v>372.61</v>
+      </c>
+      <c r="F518" t="n">
+        <v>386.5966666666667</v>
+      </c>
+      <c r="G518" t="n">
+        <v>390.44</v>
+      </c>
+      <c r="H518" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15479,7 +15539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B595"/>
+  <dimension ref="A1:B597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21437,6 +21497,26 @@
       </c>
       <c r="B595" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -21610,28 +21690,28 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01972220866283448</v>
+        <v>-0.02016854101854648</v>
       </c>
       <c r="J2" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K2" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002856195882082746</v>
+        <v>0.0003010967812541177</v>
       </c>
       <c r="M2" t="n">
-        <v>7.012974590932733</v>
+        <v>6.98648301872923</v>
       </c>
       <c r="N2" t="n">
-        <v>81.18917593239003</v>
+        <v>80.85452862429287</v>
       </c>
       <c r="O2" t="n">
-        <v>9.010503644768701</v>
+        <v>8.991914625055827</v>
       </c>
       <c r="P2" t="n">
-        <v>385.8125281860064</v>
+        <v>385.8168794918464</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21688,28 +21768,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02513410682488242</v>
+        <v>0.01788736201435844</v>
       </c>
       <c r="J3" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K3" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005031160439086246</v>
+        <v>0.0002556086459414297</v>
       </c>
       <c r="M3" t="n">
-        <v>6.965994267038092</v>
+        <v>6.977634442042594</v>
       </c>
       <c r="N3" t="n">
-        <v>75.12117931330975</v>
+        <v>75.19859155559071</v>
       </c>
       <c r="O3" t="n">
-        <v>8.667247505021981</v>
+        <v>8.671712146721125</v>
       </c>
       <c r="P3" t="n">
-        <v>375.1673570969093</v>
+        <v>375.2379862359666</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21766,28 +21846,28 @@
         <v>0.1005</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05142834682563081</v>
+        <v>-0.05594262028506956</v>
       </c>
       <c r="J4" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K4" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002338384422072903</v>
+        <v>0.002781851724580231</v>
       </c>
       <c r="M4" t="n">
-        <v>6.445893448150136</v>
+        <v>6.444898396643294</v>
       </c>
       <c r="N4" t="n">
-        <v>67.32857877792701</v>
+        <v>67.1999569090376</v>
       </c>
       <c r="O4" t="n">
-        <v>8.205399367363359</v>
+        <v>8.197557984487673</v>
       </c>
       <c r="P4" t="n">
-        <v>378.2332565036118</v>
+        <v>378.2772470724915</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21844,28 +21924,28 @@
         <v>0.0868</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1137528595723596</v>
+        <v>-0.1189553489869883</v>
       </c>
       <c r="J5" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K5" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01207631197827919</v>
+        <v>0.01325399231397262</v>
       </c>
       <c r="M5" t="n">
-        <v>6.193911167821053</v>
+        <v>6.198999090367215</v>
       </c>
       <c r="N5" t="n">
-        <v>63.45273798082067</v>
+        <v>63.39259297899095</v>
       </c>
       <c r="O5" t="n">
-        <v>7.965722690429329</v>
+        <v>7.961946557154912</v>
       </c>
       <c r="P5" t="n">
-        <v>382.6126839542159</v>
+        <v>382.6632668803534</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21922,28 +22002,28 @@
         <v>0.102</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07658637886126542</v>
+        <v>-0.07512697087268551</v>
       </c>
       <c r="J6" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K6" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003250650894342177</v>
+        <v>0.003153402937829508</v>
       </c>
       <c r="M6" t="n">
-        <v>8.239888963200773</v>
+        <v>8.213832652313924</v>
       </c>
       <c r="N6" t="n">
-        <v>108.0143367752605</v>
+        <v>107.5840287330575</v>
       </c>
       <c r="O6" t="n">
-        <v>10.39299460094445</v>
+        <v>10.37227211044222</v>
       </c>
       <c r="P6" t="n">
-        <v>386.9225337107815</v>
+        <v>386.9084500025308</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22000,28 +22080,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.208179445285003</v>
+        <v>-0.2087461040138614</v>
       </c>
       <c r="J7" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K7" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0226266335140165</v>
+        <v>0.02293243176756588</v>
       </c>
       <c r="M7" t="n">
-        <v>8.636499701075099</v>
+        <v>8.603623217567661</v>
       </c>
       <c r="N7" t="n">
-        <v>112.0404100593204</v>
+        <v>111.5630863601918</v>
       </c>
       <c r="O7" t="n">
-        <v>10.58491426792491</v>
+        <v>10.56234284428374</v>
       </c>
       <c r="P7" t="n">
-        <v>397.6086441000297</v>
+        <v>397.6141680719764</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22059,7 +22139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H516"/>
+  <dimension ref="A1:H518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42819,6 +42899,90 @@
         </is>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>-35.00166877707058,173.79134147599711</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>-35.00193065724784,173.7922033773162</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>-35.0019748097733,173.79309496583235</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>-35.00196674325257,173.79398108508582</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>-35.00175791338151,173.7948234063647</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>-35.00149840669682,173.79561656053878</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-35.00166658904453,173.79134184621614</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-35.001946371402965,173.79220104382483</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-35.00197850133272,173.79309472416872</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-35.00196674325257,173.79398108508582</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-35.001763020966294,173.79482477223414</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-35.00151571332015,173.79562346021746</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0044/nzd0044.xlsx
+++ b/data/nzd0044/nzd0044.xlsx
@@ -21681,13 +21681,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0698</v>
+        <v>0.0819</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.02017046492962524</v>
@@ -21759,13 +21759,13 @@
         <v>0.7989803108405313</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0626</v>
+        <v>0.0883</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.1101</v>
       </c>
       <c r="I3" t="n">
         <v>0.01791932806510798</v>
@@ -21837,13 +21837,13 @@
         <v>0.5981836772815979</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0793</v>
+        <v>0.0949</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1005</v>
+        <v>0.1215</v>
       </c>
       <c r="I4" t="n">
         <v>-0.05593585412942143</v>
@@ -21915,13 +21915,13 @@
         <v>0.3975642709257965</v>
       </c>
       <c r="F5" t="n">
-        <v>0.075</v>
+        <v>0.11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0868</v>
+        <v>0.1354</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1189137407134457</v>
@@ -21993,13 +21993,13 @@
         <v>0.1965829055669543</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0784</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.102</v>
+        <v>0.1023</v>
       </c>
       <c r="I6" t="n">
         <v>-0.07512352270191799</v>
@@ -22071,13 +22071,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0848</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1152</v>
+        <v>0.1274</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2087461040138615</v>

--- a/data/nzd0044/nzd0044.xlsx
+++ b/data/nzd0044/nzd0044.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H523"/>
+  <dimension ref="A1:H524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16135,6 +16135,36 @@
       <c r="H523" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>382.94</v>
+      </c>
+      <c r="C524" t="n">
+        <v>372.89</v>
+      </c>
+      <c r="D524" t="n">
+        <v>372.03</v>
+      </c>
+      <c r="E524" t="n">
+        <v>373.95</v>
+      </c>
+      <c r="F524" t="n">
+        <v>379.3</v>
+      </c>
+      <c r="G524" t="n">
+        <v>384.61</v>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -16149,7 +16179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B602"/>
+  <dimension ref="A1:B603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22177,6 +22207,16 @@
       </c>
       <c r="B602" t="n">
         <v>-0.13</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -22350,28 +22390,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03553091085534944</v>
+        <v>-0.03600765380285161</v>
       </c>
       <c r="J2" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K2" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004056008885045204</v>
+        <v>0.004180196670356295</v>
       </c>
       <c r="M2" t="n">
-        <v>3.445371333261716</v>
+        <v>3.44179092985483</v>
       </c>
       <c r="N2" t="n">
-        <v>18.73149893818741</v>
+        <v>18.69927969382736</v>
       </c>
       <c r="O2" t="n">
-        <v>4.327990173069644</v>
+        <v>4.324266376372686</v>
       </c>
       <c r="P2" t="n">
-        <v>385.2467846030874</v>
+        <v>385.2514332558931</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22425,31 +22465,31 @@
         <v>0.0888</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1111</v>
+        <v>0.111</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03764234379664251</v>
+        <v>0.03679564085557926</v>
       </c>
       <c r="J3" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K3" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005948556197117538</v>
+        <v>0.005702590018341391</v>
       </c>
       <c r="M3" t="n">
-        <v>2.939683479350724</v>
+        <v>2.939297547055275</v>
       </c>
       <c r="N3" t="n">
-        <v>14.30785194156358</v>
+        <v>14.29183804975432</v>
       </c>
       <c r="O3" t="n">
-        <v>3.782572133028474</v>
+        <v>3.780454741132913</v>
       </c>
       <c r="P3" t="n">
-        <v>374.3493601651696</v>
+        <v>374.3576162453555</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22500,34 +22540,34 @@
         <v>0.105</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0954</v>
+        <v>0.0956</v>
       </c>
       <c r="H4" t="n">
-        <v>0.122</v>
+        <v>0.1222</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0647614118908581</v>
+        <v>-0.06629833621765394</v>
       </c>
       <c r="J4" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K4" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02512089493577441</v>
+        <v>0.02629613777792617</v>
       </c>
       <c r="M4" t="n">
-        <v>2.584444546704741</v>
+        <v>2.588837182796502</v>
       </c>
       <c r="N4" t="n">
-        <v>9.834948809166876</v>
+        <v>9.853519282005317</v>
       </c>
       <c r="O4" t="n">
-        <v>3.136072194508104</v>
+        <v>3.139031583467315</v>
       </c>
       <c r="P4" t="n">
-        <v>378.1672226717945</v>
+        <v>378.1822090027332</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22578,34 +22618,34 @@
         <v>0.11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0946</v>
+        <v>0.0948</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1356</v>
+        <v>0.1361</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1354100940578373</v>
+        <v>-0.1371285724809596</v>
       </c>
       <c r="J5" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K5" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1026752361739619</v>
+        <v>0.1049280609481579</v>
       </c>
       <c r="M5" t="n">
-        <v>2.427937633425078</v>
+        <v>2.432711131368343</v>
       </c>
       <c r="N5" t="n">
-        <v>9.68299827091505</v>
+        <v>9.711210990218976</v>
       </c>
       <c r="O5" t="n">
-        <v>3.111751640300853</v>
+        <v>3.116281596746189</v>
       </c>
       <c r="P5" t="n">
-        <v>382.4602161927394</v>
+        <v>382.4769728318992</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22656,34 +22696,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0743</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.103</v>
+        <v>0.1034</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09785433503727563</v>
+        <v>-0.09968065674429825</v>
       </c>
       <c r="J6" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K6" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02181304196735467</v>
+        <v>0.02265572606678246</v>
       </c>
       <c r="M6" t="n">
-        <v>4.16244267979237</v>
+        <v>4.165987672426415</v>
       </c>
       <c r="N6" t="n">
-        <v>25.94714658569852</v>
+        <v>25.95031024979762</v>
       </c>
       <c r="O6" t="n">
-        <v>5.093834173360821</v>
+        <v>5.094144702479271</v>
       </c>
       <c r="P6" t="n">
-        <v>387.134835047003</v>
+        <v>387.1526432507154</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22734,34 +22774,34 @@
         <v>0.11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09660000000000001</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1274</v>
+        <v>0.1285</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2122587619664404</v>
+        <v>-0.2148142698665256</v>
       </c>
       <c r="J7" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K7" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07498254735084031</v>
+        <v>0.07671215997204262</v>
       </c>
       <c r="M7" t="n">
-        <v>4.594499235993148</v>
+        <v>4.601715866380986</v>
       </c>
       <c r="N7" t="n">
-        <v>33.58495896130984</v>
+        <v>33.62407494908248</v>
       </c>
       <c r="O7" t="n">
-        <v>5.795253140399463</v>
+        <v>5.798626988269075</v>
       </c>
       <c r="P7" t="n">
-        <v>397.5550098417696</v>
+        <v>397.57992823654</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22799,7 +22839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H523"/>
+  <dimension ref="A1:H524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44773,6 +44813,48 @@
         </is>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-35.00168337879537,173.79133900535155</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-35.00187800395942,173.7922111961201</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-35.00196586599519,173.79309555132627</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-35.00195468089295,173.7939802357911</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-35.00182727672948,173.79484195551487</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>-35.0015656626314,173.79564337366318</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
